--- a/Basic.xlsx
+++ b/Basic.xlsx
@@ -67,18 +67,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.48988764044944"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="6.389887640449439"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.589887640449438"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.38988764044944"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="9.68988764044944"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.08988764044944"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.78988764044944"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="8.589887640449438"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="64.68988764044944"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.989887640449439"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="40.489887640449446"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -116,28 +116,64 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>Первый Студент</t>
+          <t>апрапр парапр</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>a@a.com</t>
+          <t>парап</t>
         </is>
       </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>fsdf</t>
+          <t>парап</t>
         </is>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>234234</v>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>парпа</t>
+        </is>
       </c>
-      <c r="E2" s="0" t="n">
-        <v>12312</v>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>парпарпар</t>
+        </is>
       </c>
       <c r="F2" s="0" t="inlineStr">
         <is>
-          <t>Математика, Биология, Английский Язык, Всемирная история</t>
+          <t>Математика, Биология</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>апрапр парпар</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>парпар</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>рапрапрпар</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>парап</t>
+        </is>
+      </c>
+      <c r="E3" s="0" t="inlineStr">
+        <is>
+          <t>парапр</t>
+        </is>
+      </c>
+      <c r="F3" s="0" t="inlineStr">
+        <is>
+          <t>Английский Язык, Всемирная история</t>
         </is>
       </c>
     </row>
